--- a/Répartition tâche.xlsx
+++ b/Répartition tâche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Documents\Sup_de_vinci\M2\Datascience\Projet final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51A1486-8A69-44CF-9C5B-D72FFA89B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD1E9FC-4905-43CE-8B32-F2F4ADAEA9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{487B2E4F-293A-42B5-91EF-54EF60E1E983}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{487B2E4F-293A-42B5-91EF-54EF60E1E983}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Chaque groupe doit remplir cette table avant de coder puis la mettre à jour.</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Versioning modèle (v1/v2 + registry)</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Ludo</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +516,9 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -518,6 +527,9 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -526,6 +538,9 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -534,6 +549,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -542,6 +560,9 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -550,6 +571,9 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -558,6 +582,9 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -566,6 +593,9 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -574,6 +604,9 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -582,6 +615,9 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -590,6 +626,9 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -597,6 +636,9 @@
       </c>
       <c r="B14" t="s">
         <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
